--- a/네트워크텀프 최종보고서 개발 일정.xlsx
+++ b/네트워크텀프 최종보고서 개발 일정.xlsx
@@ -1,21 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shtke\Desktop\잡통\3학년 2학기\네트워크 게임프로그래밍\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="일정표" sheetId="1" r:id="rId1"/>
+    <sheet name="github커밋" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$AK$32</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">일정표!$A$1:$AK$32</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -189,7 +185,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
@@ -921,6 +917,42 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -975,42 +1007,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="35" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
@@ -7180,6 +7176,121 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>303439</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>202746</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="47625" y="76200"/>
+          <a:ext cx="2313214" cy="1802946"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2333625" y="57150"/>
+          <a:ext cx="1771650" cy="1743075"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -7440,7 +7551,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7450,7 +7561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="U31" sqref="U31"/>
     </sheetView>
   </sheetViews>
@@ -7463,56 +7574,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="69" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="D1" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="64" t="s">
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="66"/>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="61"/>
-      <c r="AK1" s="61"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
+      <c r="AH1" s="78"/>
+      <c r="AI1" s="72"/>
+      <c r="AJ1" s="73"/>
+      <c r="AK1" s="73"/>
     </row>
     <row r="2" spans="1:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="58"/>
-      <c r="B2" s="59"/>
-      <c r="C2" s="70"/>
+      <c r="A2" s="70"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="82"/>
       <c r="D2" s="16">
         <v>6</v>
       </c>
@@ -7606,15 +7717,15 @@
       <c r="AH2" s="2">
         <v>6</v>
       </c>
-      <c r="AI2" s="60"/>
-      <c r="AJ2" s="61"/>
-      <c r="AK2" s="61"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="73"/>
+      <c r="AK2" s="73"/>
     </row>
     <row r="3" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="67" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="56"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="11" t="s">
         <v>9</v>
       </c>
@@ -7654,8 +7765,8 @@
       <c r="AK3" s="44"/>
     </row>
     <row r="4" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A4" s="53"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="12" t="s">
         <v>6</v>
       </c>
@@ -7690,15 +7801,15 @@
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="6"/>
-      <c r="AI4" s="53" t="s">
+      <c r="AI4" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="AJ4" s="54"/>
-      <c r="AK4" s="54"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
     </row>
     <row r="5" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A5" s="53"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="65"/>
+      <c r="B5" s="69"/>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
@@ -7738,8 +7849,8 @@
       <c r="AK5" s="46"/>
     </row>
     <row r="6" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A6" s="53"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="12" t="s">
         <v>16</v>
       </c>
@@ -7774,15 +7885,15 @@
       <c r="AF6" s="27"/>
       <c r="AG6" s="27"/>
       <c r="AH6" s="29"/>
-      <c r="AI6" s="62" t="s">
+      <c r="AI6" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="AJ6" s="63"/>
-      <c r="AK6" s="63"/>
+      <c r="AJ6" s="75"/>
+      <c r="AK6" s="75"/>
     </row>
     <row r="7" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A7" s="53"/>
-      <c r="B7" s="57"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="69"/>
       <c r="C7" s="12" t="s">
         <v>17</v>
       </c>
@@ -7822,8 +7933,8 @@
       <c r="AK7" s="42"/>
     </row>
     <row r="8" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A8" s="53"/>
-      <c r="B8" s="57"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
@@ -7858,15 +7969,15 @@
       <c r="AF8" s="27"/>
       <c r="AG8" s="27"/>
       <c r="AH8" s="29"/>
-      <c r="AI8" s="53" t="s">
+      <c r="AI8" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="AJ8" s="54"/>
-      <c r="AK8" s="54"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
     </row>
     <row r="9" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
-      <c r="B9" s="57"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="69"/>
       <c r="C9" s="13" t="s">
         <v>14</v>
       </c>
@@ -7901,13 +8012,13 @@
       <c r="AF9" s="27"/>
       <c r="AG9" s="27"/>
       <c r="AH9" s="29"/>
-      <c r="AI9" s="53"/>
-      <c r="AJ9" s="54"/>
-      <c r="AK9" s="54"/>
+      <c r="AI9" s="65"/>
+      <c r="AJ9" s="66"/>
+      <c r="AK9" s="66"/>
     </row>
     <row r="10" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A10" s="53"/>
-      <c r="B10" s="57"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="12" t="s">
         <v>10</v>
       </c>
@@ -7942,13 +8053,13 @@
       <c r="AF10" s="27"/>
       <c r="AG10" s="27"/>
       <c r="AH10" s="29"/>
-      <c r="AI10" s="53"/>
-      <c r="AJ10" s="54"/>
-      <c r="AK10" s="54"/>
+      <c r="AI10" s="65"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
     </row>
     <row r="11" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="57"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="69"/>
       <c r="C11" s="13" t="s">
         <v>11</v>
       </c>
@@ -7983,15 +8094,15 @@
       <c r="AF11" s="27"/>
       <c r="AG11" s="27"/>
       <c r="AH11" s="29"/>
-      <c r="AI11" s="53" t="s">
+      <c r="AI11" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="AJ11" s="54"/>
-      <c r="AK11" s="54"/>
+      <c r="AJ11" s="66"/>
+      <c r="AK11" s="66"/>
     </row>
     <row r="12" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A12" s="53"/>
-      <c r="B12" s="57"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="69"/>
       <c r="C12" s="12" t="s">
         <v>8</v>
       </c>
@@ -8026,13 +8137,13 @@
       <c r="AF12" s="27"/>
       <c r="AG12" s="27"/>
       <c r="AH12" s="29"/>
-      <c r="AI12" s="53"/>
-      <c r="AJ12" s="54"/>
-      <c r="AK12" s="54"/>
+      <c r="AI12" s="65"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
     </row>
     <row r="13" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
-      <c r="B13" s="57"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="69"/>
       <c r="C13" s="12" t="s">
         <v>12</v>
       </c>
@@ -8067,13 +8178,13 @@
       <c r="AF13" s="27"/>
       <c r="AG13" s="27"/>
       <c r="AH13" s="29"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="54"/>
-      <c r="AK13" s="54"/>
+      <c r="AI13" s="65"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="66"/>
     </row>
     <row r="14" spans="1:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
-      <c r="B14" s="59"/>
+      <c r="A14" s="70"/>
+      <c r="B14" s="71"/>
       <c r="C14" s="33" t="s">
         <v>13</v>
       </c>
@@ -8108,17 +8219,17 @@
       <c r="AF14" s="27"/>
       <c r="AG14" s="27"/>
       <c r="AH14" s="29"/>
-      <c r="AI14" s="53" t="s">
+      <c r="AI14" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="AJ14" s="54"/>
-      <c r="AK14" s="54"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="66"/>
     </row>
     <row r="15" spans="1:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="67" t="s">
+      <c r="A15" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="66"/>
+      <c r="B15" s="78"/>
       <c r="C15" s="34" t="s">
         <v>25</v>
       </c>
@@ -8153,15 +8264,15 @@
       <c r="AF15" s="10"/>
       <c r="AG15" s="10"/>
       <c r="AH15" s="40"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="54"/>
-      <c r="AK15" s="54"/>
+      <c r="AI15" s="65"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="66"/>
     </row>
     <row r="16" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A16" s="55" t="s">
+      <c r="A16" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="56"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="32" t="s">
         <v>19</v>
       </c>
@@ -8196,13 +8307,13 @@
       <c r="AF16" s="27"/>
       <c r="AG16" s="27"/>
       <c r="AH16" s="29"/>
-      <c r="AI16" s="53"/>
-      <c r="AJ16" s="54"/>
-      <c r="AK16" s="54"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="66"/>
     </row>
     <row r="17" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A17" s="53"/>
-      <c r="B17" s="57"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="69"/>
       <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
@@ -8237,15 +8348,15 @@
       <c r="AF17" s="27"/>
       <c r="AG17" s="27"/>
       <c r="AH17" s="29"/>
-      <c r="AI17" s="53" t="s">
+      <c r="AI17" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="AJ17" s="54"/>
-      <c r="AK17" s="54"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="66"/>
     </row>
     <row r="18" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="57"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="69"/>
       <c r="C18" s="14" t="s">
         <v>21</v>
       </c>
@@ -8285,8 +8396,8 @@
       <c r="AK18" s="49"/>
     </row>
     <row r="19" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A19" s="53"/>
-      <c r="B19" s="57"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="69"/>
       <c r="C19" s="15" t="s">
         <v>22</v>
       </c>
@@ -8326,8 +8437,8 @@
       <c r="AK19" s="49"/>
     </row>
     <row r="20" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="57"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="69"/>
       <c r="C20" s="15" t="s">
         <v>30</v>
       </c>
@@ -8367,8 +8478,8 @@
       <c r="AK20" s="49"/>
     </row>
     <row r="21" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A21" s="53"/>
-      <c r="B21" s="57"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="69"/>
       <c r="C21" s="35" t="s">
         <v>31</v>
       </c>
@@ -8408,8 +8519,8 @@
       <c r="AK21" s="49"/>
     </row>
     <row r="22" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A22" s="53"/>
-      <c r="B22" s="57"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="69"/>
       <c r="C22" s="35" t="s">
         <v>32</v>
       </c>
@@ -8449,8 +8560,8 @@
       <c r="AK22" s="49"/>
     </row>
     <row r="23" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A23" s="53"/>
-      <c r="B23" s="57"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="69"/>
       <c r="C23" s="35" t="s">
         <v>33</v>
       </c>
@@ -8490,8 +8601,8 @@
       <c r="AK23" s="49"/>
     </row>
     <row r="24" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="57"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="69"/>
       <c r="C24" s="35" t="s">
         <v>34</v>
       </c>
@@ -8531,8 +8642,8 @@
       <c r="AK24" s="49"/>
     </row>
     <row r="25" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A25" s="53"/>
-      <c r="B25" s="57"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="69"/>
       <c r="C25" s="35" t="s">
         <v>35</v>
       </c>
@@ -8559,7 +8670,7 @@
       <c r="X25" s="31"/>
       <c r="Y25" s="31"/>
       <c r="Z25" s="27"/>
-      <c r="AA25" s="71"/>
+      <c r="AA25" s="53"/>
       <c r="AB25" s="27"/>
       <c r="AC25" s="27"/>
       <c r="AD25" s="27"/>
@@ -8572,8 +8683,8 @@
       <c r="AK25" s="49"/>
     </row>
     <row r="26" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="57"/>
+      <c r="A26" s="65"/>
+      <c r="B26" s="69"/>
       <c r="C26" s="35" t="s">
         <v>36</v>
       </c>
@@ -8613,8 +8724,8 @@
       <c r="AK26" s="49"/>
     </row>
     <row r="27" spans="1:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="53"/>
-      <c r="B27" s="57"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="69"/>
       <c r="C27" s="35" t="s">
         <v>37</v>
       </c>
@@ -8633,7 +8744,7 @@
       <c r="P27" s="3"/>
       <c r="Q27" s="3"/>
       <c r="R27" s="9"/>
-      <c r="S27" s="73"/>
+      <c r="S27" s="55"/>
       <c r="T27" s="27"/>
       <c r="U27" s="3"/>
       <c r="V27" s="27"/>
@@ -8654,8 +8765,8 @@
       <c r="AK27" s="49"/>
     </row>
     <row r="28" spans="1:37" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="57"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="69"/>
       <c r="C28" s="35" t="s">
         <v>38</v>
       </c>
@@ -8695,9 +8806,9 @@
       <c r="AK28" s="49"/>
     </row>
     <row r="29" spans="1:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59"/>
-      <c r="C29" s="74" t="s">
+      <c r="A29" s="70"/>
+      <c r="B29" s="71"/>
+      <c r="C29" s="56" t="s">
         <v>39</v>
       </c>
       <c r="D29" s="37"/>
@@ -8717,19 +8828,19 @@
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
       <c r="T29" s="38"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="72"/>
-      <c r="Y29" s="75"/>
-      <c r="Z29" s="75"/>
-      <c r="AA29" s="72"/>
-      <c r="AB29" s="72"/>
-      <c r="AC29" s="72"/>
-      <c r="AD29" s="72"/>
-      <c r="AE29" s="72"/>
-      <c r="AF29" s="72"/>
-      <c r="AG29" s="72"/>
+      <c r="U29" s="54"/>
+      <c r="V29" s="54"/>
+      <c r="W29" s="54"/>
+      <c r="X29" s="54"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="54"/>
+      <c r="AB29" s="54"/>
+      <c r="AC29" s="54"/>
+      <c r="AD29" s="54"/>
+      <c r="AE29" s="54"/>
+      <c r="AF29" s="54"/>
+      <c r="AG29" s="54"/>
       <c r="AH29" s="39"/>
       <c r="AI29" s="48"/>
       <c r="AJ29" s="49"/>
@@ -8738,38 +8849,38 @@
     <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="49"/>
       <c r="B30" s="49"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="77"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="77"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="77"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="77"/>
-      <c r="L30" s="77"/>
-      <c r="M30" s="77"/>
-      <c r="N30" s="77"/>
-      <c r="O30" s="77"/>
-      <c r="P30" s="77"/>
-      <c r="Q30" s="77"/>
-      <c r="R30" s="77"/>
-      <c r="S30" s="77"/>
-      <c r="T30" s="77"/>
-      <c r="U30" s="77"/>
-      <c r="V30" s="78"/>
-      <c r="W30" s="78"/>
-      <c r="X30" s="78"/>
-      <c r="Y30" s="78"/>
-      <c r="Z30" s="78"/>
-      <c r="AA30" s="78"/>
-      <c r="AB30" s="78"/>
-      <c r="AC30" s="78"/>
-      <c r="AD30" s="78"/>
-      <c r="AE30" s="78"/>
-      <c r="AF30" s="78"/>
-      <c r="AG30" s="78"/>
-      <c r="AH30" s="77"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="60"/>
+      <c r="AF30" s="60"/>
+      <c r="AG30" s="60"/>
+      <c r="AH30" s="59"/>
       <c r="AI30" s="49"/>
       <c r="AJ30" s="49"/>
       <c r="AK30" s="49"/>
@@ -8777,38 +8888,38 @@
     <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="49"/>
       <c r="B31" s="49"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="80"/>
-      <c r="J31" s="80"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
-      <c r="N31" s="80"/>
-      <c r="O31" s="80"/>
-      <c r="P31" s="80"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="80"/>
-      <c r="S31" s="80"/>
-      <c r="T31" s="80"/>
-      <c r="U31" s="80"/>
-      <c r="V31" s="81"/>
-      <c r="W31" s="81"/>
-      <c r="X31" s="81"/>
-      <c r="Y31" s="81"/>
-      <c r="Z31" s="81"/>
-      <c r="AA31" s="81"/>
-      <c r="AB31" s="81"/>
-      <c r="AC31" s="81"/>
-      <c r="AD31" s="81"/>
-      <c r="AE31" s="81"/>
-      <c r="AF31" s="81"/>
-      <c r="AG31" s="81"/>
-      <c r="AH31" s="80"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="62"/>
       <c r="AI31" s="49"/>
       <c r="AJ31" s="49"/>
       <c r="AK31" s="49"/>
@@ -8816,44 +8927,45 @@
     <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="49"/>
       <c r="B32" s="49"/>
-      <c r="C32" s="82"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="80"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="80"/>
-      <c r="J32" s="80"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
-      <c r="M32" s="80"/>
-      <c r="N32" s="80"/>
-      <c r="O32" s="80"/>
-      <c r="P32" s="80"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="80"/>
-      <c r="S32" s="80"/>
-      <c r="T32" s="80"/>
-      <c r="U32" s="80"/>
-      <c r="V32" s="81"/>
-      <c r="W32" s="81"/>
-      <c r="X32" s="81"/>
-      <c r="Y32" s="81"/>
-      <c r="Z32" s="81"/>
-      <c r="AA32" s="81"/>
-      <c r="AB32" s="81"/>
-      <c r="AC32" s="81"/>
-      <c r="AD32" s="81"/>
-      <c r="AE32" s="81"/>
-      <c r="AF32" s="81"/>
-      <c r="AG32" s="81"/>
-      <c r="AH32" s="80"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="62"/>
       <c r="AI32" s="49"/>
       <c r="AJ32" s="49"/>
       <c r="AK32" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AI12:AK13"/>
     <mergeCell ref="AI14:AK14"/>
     <mergeCell ref="A16:B29"/>
     <mergeCell ref="AI15:AK16"/>
@@ -8870,7 +8982,6 @@
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="AI11:AK11"/>
     <mergeCell ref="AI9:AK10"/>
-    <mergeCell ref="AI12:AK13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions gridLines="1"/>
@@ -8878,4 +8989,20 @@
   <pageSetup paperSize="9" scale="88" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>